--- a/tests/data/output/一级测试用例-f0005_result.xlsx
+++ b/tests/data/output/一级测试用例-f0005_result.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"ent_name":"宰荣","credit_code":"141031193404301839"}</t>
+          <t>{"ent_name":"左春梅","credit_code":"150921198612266978"}</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"ent_name":"上海蓝胖子有限公司f001-005","credit_code":"450223195008225848"}</t>
+          <t>{"ent_name":"上海蓝胖子有限公司f001-005","credit_code":"140107197505220192"}</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"ent_name":"上海蓝胖子有限公司f001-009","credit_code":"350782200001059290"}</t>
+          <t>{"ent_name":"上海蓝胖子有限公司f001-009","credit_code":"410923197411040261"}</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"ent_name":"庄秀芳","credit_code":"445321196805204206"}</t>
+          <t>{"ent_name":"班海燕","credit_code":"430500193905169099"}</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"ent_name":"上海蓝胖子有限公司f001-013","credit_code":"513425197701091931"}</t>
+          <t>{"ent_name":"上海蓝胖子有限公司f001-013","credit_code":"320116195707308978"}</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{"ent_name":"上海蓝胖子有限公司f001-017","credit_code":"653221194612171228"}</t>
+          <t>{"ent_name":"上海蓝胖子有限公司f001-017","credit_code":"532331196203031573"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0005_result.xlsx
+++ b/tests/data/output/一级测试用例-f0005_result.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"ent_name":"左春梅","credit_code":"150921198612266978"}</t>
+          <t>{"ent_name":"孙敏","credit_code":"441702193703055305"}</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"ent_name":"上海蓝胖子有限公司f001-005","credit_code":"140107197505220192"}</t>
+          <t>{"ent_name":"上海蓝胖子有限公司f001-005","credit_code":"211021194810253975"}</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"ent_name":"上海蓝胖子有限公司f001-009","credit_code":"410923197411040261"}</t>
+          <t>{"ent_name":"上海蓝胖子有限公司f001-009","credit_code":"230506195207080783"}</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"ent_name":"班海燕","credit_code":"430500193905169099"}</t>
+          <t>{"ent_name":"丘丽丽","credit_code":"320509199904290355"}</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"ent_name":"上海蓝胖子有限公司f001-013","credit_code":"320116195707308978"}</t>
+          <t>{"ent_name":"上海蓝胖子有限公司f001-013","credit_code":"330881193508151398"}</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{"ent_name":"上海蓝胖子有限公司f001-017","credit_code":"532331196203031573"}</t>
+          <t>{"ent_name":"上海蓝胖子有限公司f001-017","credit_code":"420101197001185599"}</t>
         </is>
       </c>
     </row>
